--- a/docs/mcode/shr-core-MedicationCodeOrReference-extension.xlsx
+++ b/docs/mcode/shr-core-MedicationCodeOrReference-extension.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="63">
   <si>
     <t>Path</t>
   </si>
@@ -188,17 +188,26 @@
     <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MedicationCodeOrReference-extension"/&gt;</t>
   </si>
   <si>
+    <t>Extension.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://h7.org/fhir/us/core/ValueSet/us-core-medication-codes</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>CodeableConcept {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Medication]]}</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
   </si>
 </sst>
 </file>
@@ -356,7 +365,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.00390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="30.890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -380,7 +389,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -946,13 +955,11 @@
         <v>36</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="X6" s="2"/>
       <c r="Y6" t="s" s="2">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>36</v>
@@ -970,10 +977,10 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>41</v>
